--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y31"/>
+  <dimension ref="A1:AB19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -557,6 +557,21 @@
           <t>Unnamed: 19</t>
         </is>
       </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Total Marks in MCQ</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Rank in MCQ</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 20</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -569,12 +584,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -625,14 +640,10 @@
         <v>20</v>
       </c>
       <c r="T2" t="n">
-        <v>13</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr">
         <is>
           <t>Total Question 2</t>
@@ -642,6 +653,13 @@
         <v>40</v>
       </c>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -654,12 +672,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -712,12 +730,8 @@
       <c r="T3" t="n">
         <v>14</v>
       </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr">
         <is>
           <t>Total Question 3</t>
@@ -727,6 +741,13 @@
         <v>10</v>
       </c>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -739,12 +760,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -795,19 +816,22 @@
         <v>23.33333333333333</v>
       </c>
       <c r="T4" t="n">
-        <v>7</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="n">
         <v>75</v>
       </c>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -820,12 +844,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -878,15 +902,18 @@
       <c r="T5" t="n">
         <v>1</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -899,12 +926,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -957,19 +984,22 @@
       <c r="T6" t="n">
         <v>6</v>
       </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr">
         <is>
           <t xml:space="preserve">Penalty </t>
         </is>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB6" t="n">
         <v>-0.5</v>
       </c>
     </row>
@@ -984,12 +1014,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -1040,17 +1070,20 @@
         <v>22</v>
       </c>
       <c r="T7" t="n">
-        <v>9</v>
-      </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1063,12 +1096,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1100,24 +1133,25 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
+      <c r="R8" t="inlineStr"/>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>17</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1130,12 +1164,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1186,17 +1220,20 @@
         <v>20</v>
       </c>
       <c r="T9" t="n">
-        <v>12</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1209,12 +1246,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -1246,24 +1283,25 @@
       <c r="Q10" t="n">
         <v>0</v>
       </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
+      <c r="R10" t="inlineStr"/>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>18</v>
       </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1276,12 +1314,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1332,17 +1370,20 @@
         <v>23.33333333333333</v>
       </c>
       <c r="T11" t="n">
-        <v>8</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1355,12 +1396,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1401,15 +1442,18 @@
       <c r="T12" t="n">
         <v>16</v>
       </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1422,12 +1466,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1480,15 +1524,18 @@
       <c r="T13" t="n">
         <v>11</v>
       </c>
-      <c r="U13" t="n">
-        <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1501,12 +1548,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1559,15 +1606,18 @@
       <c r="T14" t="n">
         <v>4</v>
       </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1580,12 +1630,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1638,15 +1688,18 @@
       <c r="T15" t="n">
         <v>2</v>
       </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1659,12 +1712,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1717,15 +1770,18 @@
       <c r="T16" t="n">
         <v>5</v>
       </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="n">
+        <v>22</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1738,12 +1794,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1796,15 +1852,18 @@
       <c r="T17" t="n">
         <v>15</v>
       </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1817,12 +1876,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1873,17 +1932,20 @@
         <v>22</v>
       </c>
       <c r="T18" t="n">
-        <v>10</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1896,12 +1958,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
+          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
+          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1954,747 +2016,18 @@
       <c r="T19" t="n">
         <v>3</v>
       </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr"/>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>19</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="inlineStr"/>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>0</v>
-      </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>20</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr"/>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>0</v>
-      </c>
-      <c r="R22" t="n">
-        <v>0</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>21</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
-      </c>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>22</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr"/>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
-      </c>
-      <c r="R24" t="n">
-        <v>0</v>
-      </c>
-      <c r="S24" t="n">
-        <v>0</v>
-      </c>
-      <c r="T24" t="n">
-        <v>23</v>
-      </c>
-      <c r="U24" t="n">
-        <v>0</v>
-      </c>
-      <c r="V24" t="n">
-        <v>0</v>
-      </c>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>24</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>25</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R27" t="n">
-        <v>0</v>
-      </c>
-      <c r="S27" t="n">
-        <v>0</v>
-      </c>
-      <c r="T27" t="n">
-        <v>26</v>
-      </c>
-      <c r="U27" t="n">
-        <v>0</v>
-      </c>
-      <c r="V27" t="n">
-        <v>0</v>
-      </c>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr"/>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>27</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr"/>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
+      <c r="Z19" t="n">
         <v>28</v>
       </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr"/>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>0</v>
-      </c>
-      <c r="R30" t="n">
-        <v>0</v>
-      </c>
-      <c r="S30" t="n">
-        <v>0</v>
-      </c>
-      <c r="T30" t="n">
-        <v>29</v>
-      </c>
-      <c r="U30" t="n">
-        <v>0</v>
-      </c>
-      <c r="V30" t="n">
-        <v>0</v>
-      </c>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr"/>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>184ea6cd-f2db-4ac8-95cf-8dddbe582484</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>d70e4e22-502e-4673-aca7-889ae831915e</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>30</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
-      </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
+      <c r="AA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB19"/>
+  <dimension ref="A1:AH22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,6 +572,34 @@
           <t>Unnamed: 20</t>
         </is>
       </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Essay 1</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Essay 2</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Essay 3</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Essay 4</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 25</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -584,60 +612,60 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G2" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H2" t="n">
-        <v>9.5</v>
+        <v>5.75</v>
       </c>
       <c r="I2" t="n">
-        <v>38</v>
+        <v>19.16666666666667</v>
       </c>
       <c r="J2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="M2" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="N2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>10</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>15</v>
+        <v>31.5</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>19.28571428571429</v>
       </c>
       <c r="T2" t="n">
         <v>12</v>
@@ -649,17 +677,31 @@
           <t>Total Question 2</t>
         </is>
       </c>
-      <c r="X2" t="n">
-        <v>40</v>
-      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -672,63 +714,49 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>12</v>
-      </c>
-      <c r="G3" t="n">
-        <v>8</v>
-      </c>
+          <t>Mock 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>32</v>
-      </c>
-      <c r="J3" t="n">
-        <v>6</v>
-      </c>
-      <c r="K3" t="n">
-        <v>9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>10</v>
-      </c>
-      <c r="R3" t="n">
-        <v>10.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr"/>
       <c r="S3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
@@ -737,17 +765,23 @@
           <t>Total Question 3</t>
         </is>
       </c>
-      <c r="X3" t="n">
-        <v>10</v>
-      </c>
+      <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
       <c r="Z3" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -760,78 +794,92 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" t="n">
+        <v>12</v>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J4" t="n">
+        <v>4</v>
+      </c>
+      <c r="K4" t="n">
         <v>6</v>
       </c>
-      <c r="H4" t="n">
-        <v>14</v>
-      </c>
-      <c r="I4" t="n">
-        <v>56.00000000000001</v>
-      </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>10</v>
+      </c>
+      <c r="N4" t="n">
         <v>8</v>
       </c>
-      <c r="K4" t="n">
-        <v>9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>7.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R4" t="n">
-        <v>17.5</v>
+        <v>69</v>
       </c>
       <c r="S4" t="n">
-        <v>23.33333333333333</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="T4" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
-      <c r="X4" t="n">
-        <v>75</v>
-      </c>
+      <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="n">
-        <v>17.5</v>
+        <v>20</v>
       </c>
       <c r="AA4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -844,63 +892,49 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>20</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
+          <t>Mock 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>78</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>26.25</v>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>32.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr"/>
       <c r="S5" t="n">
-        <v>43.33333333333334</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
@@ -908,12 +942,18 @@
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="n">
-        <v>32.5</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -926,81 +966,95 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H6" t="n">
-        <v>14</v>
+        <v>6.5</v>
       </c>
       <c r="I6" t="n">
-        <v>56.00000000000001</v>
+        <v>21.66666666666667</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
+        <v>4</v>
+      </c>
+      <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
+        <v>24</v>
+      </c>
+      <c r="N6" t="n">
+        <v>5</v>
+      </c>
+      <c r="O6" t="n">
+        <v>5</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>25</v>
+      </c>
+      <c r="R6" t="n">
+        <v>60.25</v>
+      </c>
+      <c r="S6" t="n">
+        <v>23.21428571428572</v>
+      </c>
+      <c r="T6" t="n">
         <v>7</v>
-      </c>
-      <c r="L6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M6" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="S6" t="n">
-        <v>24.66666666666667</v>
-      </c>
-      <c r="T6" t="n">
-        <v>6</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Penalty </t>
-        </is>
-      </c>
+      <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>16.25</v>
       </c>
       <c r="AA6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>-0.5</v>
+        <v>11</v>
+      </c>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penalty </t>
+        </is>
+      </c>
+      <c r="AH6" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="7">
@@ -1014,63 +1068,63 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H7" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I7" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="M7" t="n">
+        <v>33</v>
+      </c>
+      <c r="N7" t="n">
+        <v>7</v>
+      </c>
+      <c r="O7" t="n">
         <v>6</v>
       </c>
-      <c r="K7" t="n">
+      <c r="P7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="R7" t="n">
+        <v>56.75</v>
+      </c>
+      <c r="S7" t="n">
+        <v>36.78571428571429</v>
+      </c>
+      <c r="T7" t="n">
         <v>8</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>22</v>
-      </c>
-      <c r="T7" t="n">
-        <v>10</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1078,12 +1132,26 @@
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="n">
-        <v>16.5</v>
+        <v>25.75</v>
       </c>
       <c r="AA7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1096,17 +1164,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1133,12 +1201,14 @@
       <c r="Q8" t="n">
         <v>0</v>
       </c>
-      <c r="R8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
@@ -1149,9 +1219,15 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1164,63 +1240,63 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
-        <v>17</v>
+        <v>9.5</v>
       </c>
       <c r="I9" t="n">
-        <v>68</v>
+        <v>31.66666666666666</v>
       </c>
       <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15</v>
+      </c>
+      <c r="N9" t="n">
+        <v>5</v>
+      </c>
+      <c r="O9" t="n">
         <v>4</v>
       </c>
-      <c r="K9" t="n">
-        <v>9</v>
-      </c>
-      <c r="L9" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>-1.25</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
-      <c r="O9" t="n">
-        <v>5</v>
-      </c>
       <c r="P9" t="n">
-        <v>-1.5</v>
+        <v>4</v>
       </c>
       <c r="Q9" t="n">
-        <v>-15</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="R9" t="n">
-        <v>15</v>
+        <v>60.25</v>
       </c>
       <c r="S9" t="n">
-        <v>20</v>
+        <v>24.64285714285715</v>
       </c>
       <c r="T9" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1228,12 +1304,26 @@
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>17.25</v>
       </c>
       <c r="AA9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1246,17 +1336,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1299,9 +1389,15 @@
         <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1314,63 +1410,63 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="K11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M11" t="n">
-        <v>21.25</v>
+        <v>36</v>
       </c>
       <c r="N11" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" t="n">
-        <v>0.5</v>
+        <v>7.25</v>
       </c>
       <c r="Q11" t="n">
-        <v>5</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="R11" t="n">
-        <v>17.5</v>
+        <v>72.25</v>
       </c>
       <c r="S11" t="n">
-        <v>23.33333333333333</v>
+        <v>40.35714285714286</v>
       </c>
       <c r="T11" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -1378,12 +1474,26 @@
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>17.5</v>
+        <v>28.25</v>
       </c>
       <c r="AA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
         <v>7</v>
       </c>
-      <c r="AB11" t="inlineStr"/>
+      <c r="AE11" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>22</v>
+      </c>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1396,17 +1506,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1433,14 +1543,12 @@
       <c r="Q12" t="n">
         <v>0</v>
       </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
+      <c r="R12" t="inlineStr"/>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
@@ -1451,9 +1559,15 @@
         <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -1466,63 +1580,63 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>13.5</v>
+        <v>2.75</v>
       </c>
       <c r="I13" t="n">
-        <v>54</v>
+        <v>9.166666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>6</v>
       </c>
       <c r="K13" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="M13" t="n">
-        <v>7.5</v>
+        <v>22</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.5</v>
+        <v>8.25</v>
       </c>
       <c r="S13" t="n">
-        <v>20.66666666666667</v>
+        <v>11.78571428571428</v>
       </c>
       <c r="T13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
@@ -1530,12 +1644,18 @@
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="n">
-        <v>15.5</v>
+        <v>8.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1548,63 +1668,55 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H14" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
-        <v>76</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>7</v>
       </c>
       <c r="K14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>5</v>
+        <v>6.75</v>
       </c>
       <c r="M14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>24.5</v>
+        <v>16.75</v>
       </c>
       <c r="S14" t="n">
-        <v>32.66666666666666</v>
+        <v>30.45454545454546</v>
       </c>
       <c r="T14" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
@@ -1612,12 +1724,18 @@
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="n">
-        <v>24.5</v>
+        <v>16.75</v>
       </c>
       <c r="AA14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1630,63 +1748,63 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H15" t="n">
-        <v>14.5</v>
+        <v>7.25</v>
       </c>
       <c r="I15" t="n">
-        <v>57.99999999999999</v>
+        <v>24.16666666666667</v>
       </c>
       <c r="J15" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K15" t="n">
+        <v>2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M15" t="n">
+        <v>46</v>
+      </c>
+      <c r="N15" t="n">
+        <v>6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>8</v>
+      </c>
+      <c r="P15" t="n">
         <v>4</v>
       </c>
-      <c r="L15" t="n">
-        <v>14</v>
-      </c>
-      <c r="M15" t="n">
-        <v>35</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="R15" t="n">
+        <v>72.75</v>
+      </c>
+      <c r="S15" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="T15" t="n">
         <v>1</v>
-      </c>
-      <c r="P15" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>-5</v>
-      </c>
-      <c r="R15" t="n">
-        <v>28</v>
-      </c>
-      <c r="S15" t="n">
-        <v>37.33333333333334</v>
-      </c>
-      <c r="T15" t="n">
-        <v>2</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1694,12 +1812,26 @@
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="n">
-        <v>28</v>
+        <v>22.75</v>
       </c>
       <c r="AA15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1712,63 +1844,63 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="I16" t="n">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="J16" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>5.5</v>
+        <v>9.75</v>
       </c>
       <c r="M16" t="n">
-        <v>13.75</v>
+        <v>39</v>
       </c>
       <c r="N16" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P16" t="n">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>22</v>
+        <v>69.25</v>
       </c>
       <c r="S16" t="n">
-        <v>29.33333333333333</v>
+        <v>38.92857142857143</v>
       </c>
       <c r="T16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1776,12 +1908,26 @@
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="n">
-        <v>22</v>
+        <v>27.25</v>
       </c>
       <c r="AA16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1794,63 +1940,49 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>12</v>
-      </c>
-      <c r="G17" t="n">
-        <v>6</v>
-      </c>
+          <t>Mock 1</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>36</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="n">
-        <v>4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-10</v>
-      </c>
-      <c r="R17" t="n">
-        <v>8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="R17" t="inlineStr"/>
       <c r="S17" t="n">
-        <v>10.66666666666667</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
@@ -1858,12 +1990,18 @@
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
         <v>15</v>
       </c>
       <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1876,63 +2014,63 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I18" t="n">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="J18" t="n">
         <v>8</v>
       </c>
       <c r="K18" t="n">
+        <v>6</v>
+      </c>
+      <c r="L18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M18" t="n">
+        <v>26</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
         <v>5</v>
       </c>
-      <c r="L18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>13.75</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>-1.666666666666667</v>
       </c>
       <c r="R18" t="n">
-        <v>16.5</v>
+        <v>43.25</v>
       </c>
       <c r="S18" t="n">
-        <v>22</v>
+        <v>21.78571428571428</v>
       </c>
       <c r="T18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
@@ -1940,12 +2078,26 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="n">
-        <v>16.5</v>
+        <v>15.25</v>
       </c>
       <c r="AA18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1958,60 +2110,60 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>9172b9b2-ed8f-43b7-8882-6d66ea168b28</t>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>83f8cfcf-577c-413f-9ad0-2295fbb90547</t>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>BUP Mock 3</t>
+          <t>Mock 1</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G19" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H19" t="n">
-        <v>16.5</v>
+        <v>9.5</v>
       </c>
       <c r="I19" t="n">
-        <v>66</v>
+        <v>31.66666666666666</v>
       </c>
       <c r="J19" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L19" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="M19" t="n">
-        <v>31.25</v>
+        <v>44</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P19" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q19" t="n">
-        <v>-10</v>
+        <v>40</v>
       </c>
       <c r="R19" t="n">
-        <v>28</v>
+        <v>69.5</v>
       </c>
       <c r="S19" t="n">
-        <v>37.33333333333334</v>
+        <v>37.85714285714285</v>
       </c>
       <c r="T19" t="n">
         <v>3</v>
@@ -2022,12 +2174,274 @@
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="n">
-        <v>28</v>
+        <v>26.5</v>
       </c>
       <c r="AA19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>21.5</v>
+      </c>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>346190</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Fardin Rahman Bhuiyan</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Mock 1</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>9</v>
+      </c>
+      <c r="G20" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I20" t="n">
+        <v>25</v>
+      </c>
+      <c r="J20" t="n">
+        <v>7</v>
+      </c>
+      <c r="K20" t="n">
+        <v>3</v>
+      </c>
+      <c r="L20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M20" t="n">
+        <v>25</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="R20" t="n">
+        <v>48</v>
+      </c>
+      <c r="S20" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="T20" t="n">
+        <v>10</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>950163</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sabab Tonoy</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Mock 1</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>21</v>
+      </c>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>195226</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Mayabi Rahman Mishi</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Mock 1</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>13</v>
+      </c>
+      <c r="G22" t="n">
+        <v>11</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>34.16666666666666</v>
+      </c>
+      <c r="J22" t="n">
+        <v>11</v>
+      </c>
+      <c r="K22" t="n">
+        <v>4</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10</v>
+      </c>
+      <c r="M22" t="n">
+        <v>40</v>
+      </c>
+      <c r="N22" t="n">
+        <v>9</v>
+      </c>
+      <c r="O22" t="n">
         <v>2</v>
       </c>
-      <c r="AB19" t="inlineStr"/>
+      <c r="P22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>56.66666666666666</v>
+      </c>
+      <c r="R22" t="n">
+        <v>55.75</v>
+      </c>
+      <c r="S22" t="n">
+        <v>41.07142857142857</v>
+      </c>
+      <c r="T22" t="n">
+        <v>9</v>
+      </c>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="n">
+        <v>28.75</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -617,12 +617,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -662,7 +662,7 @@
         <v>33.33333333333333</v>
       </c>
       <c r="R2" t="n">
-        <v>31.5</v>
+        <v>22.5</v>
       </c>
       <c r="S2" t="n">
         <v>19.28571428571429</v>
@@ -695,9 +695,7 @@
       <c r="AE2" t="n">
         <v>0</v>
       </c>
-      <c r="AF2" t="n">
-        <v>9</v>
-      </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
         <v>25</v>
       </c>
@@ -719,12 +717,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -799,12 +797,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -844,7 +842,7 @@
         <v>50</v>
       </c>
       <c r="R4" t="n">
-        <v>69</v>
+        <v>44.5</v>
       </c>
       <c r="S4" t="n">
         <v>28.57142857142857</v>
@@ -873,9 +871,7 @@
       <c r="AE4" t="n">
         <v>9</v>
       </c>
-      <c r="AF4" t="n">
-        <v>24.5</v>
-      </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
         <v>70</v>
       </c>
@@ -897,12 +893,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -971,12 +967,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -1016,13 +1012,13 @@
         <v>25</v>
       </c>
       <c r="R6" t="n">
-        <v>60.25</v>
+        <v>38.25</v>
       </c>
       <c r="S6" t="n">
         <v>23.21428571428572</v>
       </c>
       <c r="T6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
@@ -1045,9 +1041,7 @@
       <c r="AE6" t="n">
         <v>6.5</v>
       </c>
-      <c r="AF6" t="n">
-        <v>22</v>
-      </c>
+      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr">
         <is>
           <t xml:space="preserve">Penalty </t>
@@ -1073,12 +1067,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -1118,13 +1112,13 @@
         <v>36.66666666666666</v>
       </c>
       <c r="R7" t="n">
-        <v>56.75</v>
+        <v>41.25</v>
       </c>
       <c r="S7" t="n">
         <v>36.78571428571429</v>
       </c>
       <c r="T7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
@@ -1147,9 +1141,7 @@
       <c r="AE7" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF7" t="n">
-        <v>15.5</v>
-      </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="inlineStr"/>
     </row>
@@ -1169,12 +1161,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -1245,12 +1237,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -1290,13 +1282,13 @@
         <v>26.66666666666667</v>
       </c>
       <c r="R9" t="n">
-        <v>60.25</v>
+        <v>38.75</v>
       </c>
       <c r="S9" t="n">
         <v>24.64285714285715</v>
       </c>
       <c r="T9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
@@ -1319,9 +1311,7 @@
       <c r="AE9" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF9" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="inlineStr"/>
     </row>
@@ -1341,12 +1331,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
@@ -1415,12 +1405,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1460,13 +1450,13 @@
         <v>48.33333333333334</v>
       </c>
       <c r="R11" t="n">
-        <v>72.25</v>
+        <v>50.25</v>
       </c>
       <c r="S11" t="n">
         <v>40.35714285714286</v>
       </c>
       <c r="T11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
@@ -1489,9 +1479,7 @@
       <c r="AE11" t="n">
         <v>7</v>
       </c>
-      <c r="AF11" t="n">
-        <v>22</v>
-      </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
       <c r="AH11" t="inlineStr"/>
     </row>
@@ -1511,12 +1499,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
@@ -1585,12 +1573,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1673,12 +1661,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1753,12 +1741,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1798,13 +1786,13 @@
         <v>26.66666666666667</v>
       </c>
       <c r="R15" t="n">
-        <v>72.75</v>
+        <v>47.75</v>
       </c>
       <c r="S15" t="n">
         <v>32.5</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
@@ -1827,9 +1815,7 @@
       <c r="AE15" t="n">
         <v>8.5</v>
       </c>
-      <c r="AF15" t="n">
-        <v>25</v>
-      </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="inlineStr"/>
     </row>
@@ -1849,12 +1835,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1894,13 +1880,13 @@
         <v>26.66666666666667</v>
       </c>
       <c r="R16" t="n">
-        <v>69.25</v>
+        <v>48.25</v>
       </c>
       <c r="S16" t="n">
         <v>38.92857142857143</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
@@ -1923,9 +1909,7 @@
       <c r="AE16" t="n">
         <v>7</v>
       </c>
-      <c r="AF16" t="n">
-        <v>21</v>
-      </c>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="inlineStr"/>
     </row>
@@ -1945,12 +1929,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -2019,12 +2003,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -2064,7 +2048,7 @@
         <v>-1.666666666666667</v>
       </c>
       <c r="R18" t="n">
-        <v>43.25</v>
+        <v>29.25</v>
       </c>
       <c r="S18" t="n">
         <v>21.78571428571428</v>
@@ -2093,9 +2077,7 @@
       <c r="AE18" t="n">
         <v>1.5</v>
       </c>
-      <c r="AF18" t="n">
-        <v>14</v>
-      </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="inlineStr"/>
     </row>
@@ -2115,12 +2097,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -2160,7 +2142,7 @@
         <v>40</v>
       </c>
       <c r="R19" t="n">
-        <v>69.5</v>
+        <v>48</v>
       </c>
       <c r="S19" t="n">
         <v>37.85714285714285</v>
@@ -2189,9 +2171,7 @@
       <c r="AE19" t="n">
         <v>7.5</v>
       </c>
-      <c r="AF19" t="n">
-        <v>21.5</v>
-      </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="inlineStr"/>
     </row>
@@ -2211,12 +2191,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -2256,7 +2236,7 @@
         <v>41.66666666666667</v>
       </c>
       <c r="R20" t="n">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="S20" t="n">
         <v>28.57142857142857</v>
@@ -2285,9 +2265,7 @@
       <c r="AE20" t="n">
         <v>0</v>
       </c>
-      <c r="AF20" t="n">
-        <v>14</v>
-      </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
       <c r="AH20" t="inlineStr"/>
     </row>
@@ -2307,12 +2285,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
@@ -2363,12 +2341,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>f68eecd0-f353-436f-8e94-ae2383f9ab52</t>
+          <t>7a6eafab-5fa3-4f6b-9220-96f64351c8b8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Mock 1</t>
+          <t>IBA Mock 1</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -2408,13 +2386,13 @@
         <v>56.66666666666666</v>
       </c>
       <c r="R22" t="n">
-        <v>55.75</v>
+        <v>42.25</v>
       </c>
       <c r="S22" t="n">
         <v>41.07142857142857</v>
       </c>
       <c r="T22" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U22" t="inlineStr"/>
       <c r="V22" t="inlineStr"/>
@@ -2437,9 +2415,7 @@
       <c r="AE22" t="n">
         <v>7</v>
       </c>
-      <c r="AF22" t="n">
-        <v>13.5</v>
-      </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
     </row>

--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH22"/>
+  <dimension ref="A1:AH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2419,6 +2419,1902 @@
       <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="inlineStr"/>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>680521</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Anas Kamal</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>9</v>
+      </c>
+      <c r="G23" t="n">
+        <v>5</v>
+      </c>
+      <c r="H23" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="I23" t="n">
+        <v>25.83333333333334</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
+      <c r="K23" t="n">
+        <v>5</v>
+      </c>
+      <c r="L23" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M23" t="n">
+        <v>15</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="n">
+        <v>25.71428571428571</v>
+      </c>
+      <c r="T23" t="n">
+        <v>7</v>
+      </c>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>341368</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Anayed Ahmed</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>11</v>
+      </c>
+      <c r="G24" t="n">
+        <v>10</v>
+      </c>
+      <c r="H24" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3</v>
+      </c>
+      <c r="K24" t="n">
+        <v>5</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M24" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>25</v>
+      </c>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>20</v>
+      </c>
+      <c r="T24" t="n">
+        <v>16</v>
+      </c>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>871945</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Audrika Maisha Hosain</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>17</v>
+      </c>
+      <c r="G25" t="n">
+        <v>11</v>
+      </c>
+      <c r="H25" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="I25" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
+      <c r="K25" t="n">
+        <v>9</v>
+      </c>
+      <c r="L25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M25" t="n">
+        <v>15</v>
+      </c>
+      <c r="N25" t="n">
+        <v>9</v>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>55.00000000000001</v>
+      </c>
+      <c r="R25" t="n">
+        <v>43.25</v>
+      </c>
+      <c r="S25" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2</v>
+      </c>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>166388</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Farhan Hossain</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>14</v>
+      </c>
+      <c r="G26" t="n">
+        <v>5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="I26" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="J26" t="n">
+        <v>12</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4</v>
+      </c>
+      <c r="L26" t="n">
+        <v>11</v>
+      </c>
+      <c r="M26" t="n">
+        <v>44</v>
+      </c>
+      <c r="N26" t="n">
+        <v>6</v>
+      </c>
+      <c r="O26" t="n">
+        <v>6</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>30</v>
+      </c>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>40.35714285714286</v>
+      </c>
+      <c r="T26" t="n">
+        <v>17</v>
+      </c>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>754261</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Farhan Khan</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>13</v>
+      </c>
+      <c r="G27" t="n">
+        <v>5</v>
+      </c>
+      <c r="H27" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="I27" t="n">
+        <v>39.16666666666666</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6</v>
+      </c>
+      <c r="K27" t="n">
+        <v>5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M27" t="n">
+        <v>19</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1</v>
+      </c>
+      <c r="P27" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>45</v>
+      </c>
+      <c r="R27" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="S27" t="n">
+        <v>33.21428571428572</v>
+      </c>
+      <c r="T27" t="n">
+        <v>11</v>
+      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>750246</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Kaif Kabir</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>13</v>
+      </c>
+      <c r="G28" t="n">
+        <v>11</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="I28" t="n">
+        <v>34.16666666666666</v>
+      </c>
+      <c r="J28" t="n">
+        <v>5</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M28" t="n">
+        <v>14</v>
+      </c>
+      <c r="N28" t="n">
+        <v>8</v>
+      </c>
+      <c r="O28" t="n">
+        <v>5</v>
+      </c>
+      <c r="P28" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>45</v>
+      </c>
+      <c r="R28" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>29.28571428571429</v>
+      </c>
+      <c r="T28" t="n">
+        <v>12</v>
+      </c>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>346354</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Mahmeed Saleh Ahsan</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>14</v>
+      </c>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>694668</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nazifa Rahman Khan</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>8</v>
+      </c>
+      <c r="G30" t="n">
+        <v>6</v>
+      </c>
+      <c r="H30" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="J30" t="n">
+        <v>5</v>
+      </c>
+      <c r="K30" t="n">
+        <v>7</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M30" t="n">
+        <v>13</v>
+      </c>
+      <c r="N30" t="n">
+        <v>5</v>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="R30" t="n">
+        <v>33.5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>20</v>
+      </c>
+      <c r="T30" t="n">
+        <v>4</v>
+      </c>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>291415</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rubaiya Zaman</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>18</v>
+      </c>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>216338</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Safir Ahbab</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>11</v>
+      </c>
+      <c r="G32" t="n">
+        <v>10</v>
+      </c>
+      <c r="H32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="J32" t="n">
+        <v>10</v>
+      </c>
+      <c r="K32" t="n">
+        <v>5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M32" t="n">
+        <v>35</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="R32" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="S32" t="n">
+        <v>38.92857142857143</v>
+      </c>
+      <c r="T32" t="n">
+        <v>8</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>879668</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Sakib Muntasir Moon</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="n">
+        <v>0</v>
+      </c>
+      <c r="T33" t="n">
+        <v>19</v>
+      </c>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>309281</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Samin Yasar Rafsan</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>13</v>
+      </c>
+      <c r="G34" t="n">
+        <v>10</v>
+      </c>
+      <c r="H34" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I34" t="n">
+        <v>35</v>
+      </c>
+      <c r="J34" t="n">
+        <v>3</v>
+      </c>
+      <c r="K34" t="n">
+        <v>7</v>
+      </c>
+      <c r="L34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="S34" t="n">
+        <v>16.78571428571428</v>
+      </c>
+      <c r="T34" t="n">
+        <v>13</v>
+      </c>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>786264</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Shorfuddin Hassan</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>15</v>
+      </c>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>111135</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Sidratul Muntaha Hossain</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>12</v>
+      </c>
+      <c r="G36" t="n">
+        <v>5</v>
+      </c>
+      <c r="H36" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="I36" t="n">
+        <v>35.83333333333334</v>
+      </c>
+      <c r="J36" t="n">
+        <v>13</v>
+      </c>
+      <c r="K36" t="n">
+        <v>2</v>
+      </c>
+      <c r="L36" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M36" t="n">
+        <v>50</v>
+      </c>
+      <c r="N36" t="n">
+        <v>12</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>78.33333333333333</v>
+      </c>
+      <c r="R36" t="n">
+        <v>35</v>
+      </c>
+      <c r="S36" t="n">
+        <v>50</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3</v>
+      </c>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>159244</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Syed Iltimas Alam</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>12</v>
+      </c>
+      <c r="G37" t="n">
+        <v>8</v>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+      <c r="I37" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="J37" t="n">
+        <v>7</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>22</v>
+      </c>
+      <c r="N37" t="n">
+        <v>10</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="R37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>36.42857142857142</v>
+      </c>
+      <c r="T37" t="n">
+        <v>10</v>
+      </c>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>546220</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Syeda Huddessa Zainab</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>8</v>
+      </c>
+      <c r="G38" t="n">
+        <v>8</v>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+      <c r="I38" t="n">
+        <v>20</v>
+      </c>
+      <c r="J38" t="n">
+        <v>5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M38" t="n">
+        <v>14</v>
+      </c>
+      <c r="N38" t="n">
+        <v>7</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>45</v>
+      </c>
+      <c r="R38" t="n">
+        <v>26.25</v>
+      </c>
+      <c r="S38" t="n">
+        <v>23.21428571428572</v>
+      </c>
+      <c r="T38" t="n">
+        <v>9</v>
+      </c>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="n">
+        <v>16.25</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>532160</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Tahasin Tabassum Elahee</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>20</v>
+      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>255879</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tauqir Anwar</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>15</v>
+      </c>
+      <c r="G40" t="n">
+        <v>11</v>
+      </c>
+      <c r="H40" t="n">
+        <v>12.25</v>
+      </c>
+      <c r="I40" t="n">
+        <v>40.83333333333334</v>
+      </c>
+      <c r="J40" t="n">
+        <v>13</v>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="M40" t="n">
+        <v>45</v>
+      </c>
+      <c r="N40" t="n">
+        <v>9</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>60</v>
+      </c>
+      <c r="R40" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>46.42857142857143</v>
+      </c>
+      <c r="T40" t="n">
+        <v>5</v>
+      </c>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>346190</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Fardin Rahman Bhuiyan</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>12</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="I41" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>11</v>
+      </c>
+      <c r="M41" t="n">
+        <v>44</v>
+      </c>
+      <c r="N41" t="n">
+        <v>9</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
+      <c r="P41" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="R41" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="S41" t="n">
+        <v>44.64285714285715</v>
+      </c>
+      <c r="T41" t="n">
+        <v>6</v>
+      </c>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>950163</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sabab Tonoy</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>14</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4</v>
+      </c>
+      <c r="H42" t="n">
+        <v>13</v>
+      </c>
+      <c r="I42" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10</v>
+      </c>
+      <c r="K42" t="n">
+        <v>3</v>
+      </c>
+      <c r="L42" t="n">
+        <v>10</v>
+      </c>
+      <c r="M42" t="n">
+        <v>40</v>
+      </c>
+      <c r="N42" t="n">
+        <v>8</v>
+      </c>
+      <c r="O42" t="n">
+        <v>1</v>
+      </c>
+      <c r="P42" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>51.66666666666667</v>
+      </c>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="n">
+        <v>43.92857142857143</v>
+      </c>
+      <c r="T42" t="n">
+        <v>21</v>
+      </c>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="n">
+        <v>30.75</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>195226</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Mayabi Rahman Mishi</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>IBA Mock 2</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>15</v>
+      </c>
+      <c r="G43" t="n">
+        <v>7</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="I43" t="n">
+        <v>44.16666666666666</v>
+      </c>
+      <c r="J43" t="n">
+        <v>10</v>
+      </c>
+      <c r="K43" t="n">
+        <v>7</v>
+      </c>
+      <c r="L43" t="n">
+        <v>10</v>
+      </c>
+      <c r="M43" t="n">
+        <v>40</v>
+      </c>
+      <c r="N43" t="n">
+        <v>11</v>
+      </c>
+      <c r="O43" t="n">
+        <v>2</v>
+      </c>
+      <c r="P43" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>70</v>
+      </c>
+      <c r="R43" t="n">
+        <v>57.75</v>
+      </c>
+      <c r="S43" t="n">
+        <v>48.21428571428572</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1</v>
+      </c>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -2435,7 +2435,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2486,11 +2486,15 @@
         <v>25.71428571428571</v>
       </c>
       <c r="T23" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Total Question 2</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="n">
@@ -2512,7 +2516,9 @@
       <c r="AF23" t="n">
         <v>3.5</v>
       </c>
-      <c r="AG23" t="inlineStr"/>
+      <c r="AG23" t="n">
+        <v>25</v>
+      </c>
       <c r="AH23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2531,7 +2537,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2575,16 +2581,22 @@
       <c r="Q24" t="n">
         <v>25</v>
       </c>
-      <c r="R24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>25.5</v>
+      </c>
       <c r="S24" t="n">
         <v>20</v>
       </c>
       <c r="T24" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Total Question 3</t>
+        </is>
+      </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="n">
@@ -2606,7 +2618,9 @@
       <c r="AF24" t="n">
         <v>1.5</v>
       </c>
-      <c r="AG24" t="inlineStr"/>
+      <c r="AG24" t="n">
+        <v>15</v>
+      </c>
       <c r="AH24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2625,7 +2639,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2676,7 +2690,7 @@
         <v>37.5</v>
       </c>
       <c r="T25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
@@ -2702,7 +2716,9 @@
       <c r="AF25" t="n">
         <v>3</v>
       </c>
-      <c r="AG25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>70</v>
+      </c>
       <c r="AH25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2721,7 +2737,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2765,12 +2781,14 @@
       <c r="Q26" t="n">
         <v>30</v>
       </c>
-      <c r="R26" t="inlineStr"/>
+      <c r="R26" t="n">
+        <v>28.25</v>
+      </c>
       <c r="S26" t="n">
         <v>40.35714285714286</v>
       </c>
       <c r="T26" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
@@ -2815,7 +2833,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2866,7 +2884,7 @@
         <v>33.21428571428572</v>
       </c>
       <c r="T27" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="inlineStr"/>
@@ -2892,8 +2910,14 @@
       <c r="AF27" t="n">
         <v>0</v>
       </c>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penalty </t>
+        </is>
+      </c>
+      <c r="AH27" t="n">
+        <v>-0.25</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2911,7 +2935,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2962,7 +2986,7 @@
         <v>29.28571428571429</v>
       </c>
       <c r="T28" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
@@ -3007,7 +3031,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -3046,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="inlineStr"/>
@@ -3083,7 +3107,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -3134,7 +3158,7 @@
         <v>20</v>
       </c>
       <c r="T30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr"/>
@@ -3179,7 +3203,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -3211,7 +3235,9 @@
       <c r="Q31" t="n">
         <v>0</v>
       </c>
-      <c r="R31" t="inlineStr"/>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
@@ -3253,7 +3279,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -3304,7 +3330,7 @@
         <v>38.92857142857143</v>
       </c>
       <c r="T32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr"/>
@@ -3349,7 +3375,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -3386,7 +3412,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr"/>
@@ -3423,7 +3449,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -3474,7 +3500,7 @@
         <v>16.78571428571428</v>
       </c>
       <c r="T34" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
@@ -3511,7 +3537,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -3550,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
@@ -3587,7 +3613,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -3638,7 +3664,7 @@
         <v>50</v>
       </c>
       <c r="T36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
@@ -3683,7 +3709,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -3734,7 +3760,7 @@
         <v>36.42857142857142</v>
       </c>
       <c r="T37" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
@@ -3779,7 +3805,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3830,7 +3856,7 @@
         <v>23.21428571428572</v>
       </c>
       <c r="T38" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
@@ -3875,7 +3901,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3907,7 +3933,9 @@
       <c r="Q39" t="n">
         <v>0</v>
       </c>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
       <c r="S39" t="n">
         <v>0</v>
       </c>
@@ -3949,7 +3977,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -4000,7 +4028,7 @@
         <v>46.42857142857143</v>
       </c>
       <c r="T40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr"/>
@@ -4045,7 +4073,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -4096,7 +4124,7 @@
         <v>44.64285714285715</v>
       </c>
       <c r="T41" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr"/>
@@ -4141,7 +4169,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4185,12 +4213,14 @@
       <c r="Q42" t="n">
         <v>51.66666666666667</v>
       </c>
-      <c r="R42" t="inlineStr"/>
+      <c r="R42" t="n">
+        <v>45.75</v>
+      </c>
       <c r="S42" t="n">
         <v>43.92857142857143</v>
       </c>
       <c r="T42" t="n">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
@@ -4235,7 +4265,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>326bdcf9-ef62-4f38-8e41-70255411da24</t>
+          <t>7e2d4f93-f6e6-4af2-aa08-5c2b189b4903</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">

--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH43"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,6 +4347,9169 @@
       <c r="AG43" t="inlineStr"/>
       <c r="AH43" t="inlineStr"/>
     </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>680521</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Anas Kamal</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>17</v>
+      </c>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>Total Question 2</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>341368</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Anayed Ahmed</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>16</v>
+      </c>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>Total Question 3</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>871945</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Audrika Maisha Hosain</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>13</v>
+      </c>
+      <c r="G46" t="n">
+        <v>13</v>
+      </c>
+      <c r="H46" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I46" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6</v>
+      </c>
+      <c r="L46" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>10</v>
+      </c>
+      <c r="N46" t="n">
+        <v>7</v>
+      </c>
+      <c r="O46" t="n">
+        <v>8</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="R46" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="S46" t="n">
+        <v>24.64285714285715</v>
+      </c>
+      <c r="T46" t="n">
+        <v>10</v>
+      </c>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>166388</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Farhan Hossain</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>15</v>
+      </c>
+      <c r="G47" t="n">
+        <v>7</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="I47" t="n">
+        <v>44.16666666666666</v>
+      </c>
+      <c r="J47" t="n">
+        <v>12</v>
+      </c>
+      <c r="K47" t="n">
+        <v>8</v>
+      </c>
+      <c r="L47" t="n">
+        <v>10</v>
+      </c>
+      <c r="M47" t="n">
+        <v>40</v>
+      </c>
+      <c r="N47" t="n">
+        <v>6</v>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>35</v>
+      </c>
+      <c r="R47" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>40.71428571428572</v>
+      </c>
+      <c r="T47" t="n">
+        <v>5</v>
+      </c>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>754261</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Farhan Khan</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>12</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="I48" t="n">
+        <v>39.16666666666666</v>
+      </c>
+      <c r="J48" t="n">
+        <v>6</v>
+      </c>
+      <c r="K48" t="n">
+        <v>5</v>
+      </c>
+      <c r="L48" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M48" t="n">
+        <v>19</v>
+      </c>
+      <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>2</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="R48" t="n">
+        <v>20</v>
+      </c>
+      <c r="S48" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="T48" t="n">
+        <v>9</v>
+      </c>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penalty </t>
+        </is>
+      </c>
+      <c r="AH48" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>750246</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Kaif Kabir</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>12</v>
+      </c>
+      <c r="G49" t="n">
+        <v>9</v>
+      </c>
+      <c r="H49" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="I49" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="J49" t="n">
+        <v>5</v>
+      </c>
+      <c r="K49" t="n">
+        <v>4</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>16</v>
+      </c>
+      <c r="N49" t="n">
+        <v>8</v>
+      </c>
+      <c r="O49" t="n">
+        <v>4</v>
+      </c>
+      <c r="P49" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>46.66666666666666</v>
+      </c>
+      <c r="R49" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="S49" t="n">
+        <v>29.64285714285714</v>
+      </c>
+      <c r="T49" t="n">
+        <v>8</v>
+      </c>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="n">
+        <v>20.75</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>346354</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Mahmeed Saleh Ahsan</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>8</v>
+      </c>
+      <c r="G50" t="n">
+        <v>8</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+      <c r="I50" t="n">
+        <v>20</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>6</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M50" t="n">
+        <v>6</v>
+      </c>
+      <c r="N50" t="n">
+        <v>2</v>
+      </c>
+      <c r="O50" t="n">
+        <v>7</v>
+      </c>
+      <c r="P50" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.666666666666667</v>
+      </c>
+      <c r="R50" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="S50" t="n">
+        <v>11.07142857142857</v>
+      </c>
+      <c r="T50" t="n">
+        <v>15</v>
+      </c>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>694668</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Nazifa Rahman Khan</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>11</v>
+      </c>
+      <c r="G51" t="n">
+        <v>14</v>
+      </c>
+      <c r="H51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="I51" t="n">
+        <v>25</v>
+      </c>
+      <c r="J51" t="n">
+        <v>3</v>
+      </c>
+      <c r="K51" t="n">
+        <v>5</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M51" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="N51" t="n">
+        <v>4</v>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="R51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>17.85714285714286</v>
+      </c>
+      <c r="T51" t="n">
+        <v>12</v>
+      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>291415</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rubaiya Zaman</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>18</v>
+      </c>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>216338</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Safir Ahbab</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>18</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="I53" t="n">
+        <v>58.33333333333334</v>
+      </c>
+      <c r="J53" t="n">
+        <v>10</v>
+      </c>
+      <c r="K53" t="n">
+        <v>5</v>
+      </c>
+      <c r="L53" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M53" t="n">
+        <v>35</v>
+      </c>
+      <c r="N53" t="n">
+        <v>8</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1</v>
+      </c>
+      <c r="P53" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>51.66666666666667</v>
+      </c>
+      <c r="R53" t="n">
+        <v>34</v>
+      </c>
+      <c r="S53" t="n">
+        <v>48.57142857142857</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2</v>
+      </c>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>879668</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Sakib Muntasir Moon</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>8</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>3</v>
+      </c>
+      <c r="K54" t="n">
+        <v>4</v>
+      </c>
+      <c r="L54" t="n">
+        <v>2</v>
+      </c>
+      <c r="M54" t="n">
+        <v>8</v>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="n">
+        <v>5</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="n">
+        <v>9.642857142857144</v>
+      </c>
+      <c r="T54" t="n">
+        <v>21</v>
+      </c>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>16</v>
+      </c>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>309281</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Samin Yasar Rafsan</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>14</v>
+      </c>
+      <c r="G55" t="n">
+        <v>13</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="I55" t="n">
+        <v>35.83333333333334</v>
+      </c>
+      <c r="J55" t="n">
+        <v>2</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>0</v>
+      </c>
+      <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
+      <c r="R55" t="n">
+        <v>12</v>
+      </c>
+      <c r="S55" t="n">
+        <v>17.14285714285714</v>
+      </c>
+      <c r="T55" t="n">
+        <v>13</v>
+      </c>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>786264</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Shorfuddin Hassan</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="n">
+        <v>0</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>19</v>
+      </c>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>111135</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Sidratul Muntaha Hossain</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>17</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55.83333333333334</v>
+      </c>
+      <c r="J57" t="n">
+        <v>13</v>
+      </c>
+      <c r="K57" t="n">
+        <v>2</v>
+      </c>
+      <c r="L57" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="M57" t="n">
+        <v>50</v>
+      </c>
+      <c r="N57" t="n">
+        <v>10</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1</v>
+      </c>
+      <c r="P57" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>65</v>
+      </c>
+      <c r="R57" t="n">
+        <v>39</v>
+      </c>
+      <c r="S57" t="n">
+        <v>55.71428571428572</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="n">
+        <v>39</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>159244</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Syed Iltimas Alam</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>19</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5</v>
+      </c>
+      <c r="H58" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="I58" t="n">
+        <v>59.16666666666666</v>
+      </c>
+      <c r="J58" t="n">
+        <v>4</v>
+      </c>
+      <c r="K58" t="n">
+        <v>6</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M58" t="n">
+        <v>10</v>
+      </c>
+      <c r="N58" t="n">
+        <v>8</v>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>48.33333333333334</v>
+      </c>
+      <c r="R58" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>39.28571428571428</v>
+      </c>
+      <c r="T58" t="n">
+        <v>6</v>
+      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>546220</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Syeda Huddessa Zainab</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>9</v>
+      </c>
+      <c r="G59" t="n">
+        <v>7</v>
+      </c>
+      <c r="H59" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I59" t="n">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3</v>
+      </c>
+      <c r="K59" t="n">
+        <v>4</v>
+      </c>
+      <c r="L59" t="n">
+        <v>2</v>
+      </c>
+      <c r="M59" t="n">
+        <v>8</v>
+      </c>
+      <c r="N59" t="n">
+        <v>5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>4</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>26.66666666666667</v>
+      </c>
+      <c r="R59" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="S59" t="n">
+        <v>18.92857142857143</v>
+      </c>
+      <c r="T59" t="n">
+        <v>11</v>
+      </c>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>532160</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Tahasin Tabassum Elahee</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>12</v>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+      <c r="I60" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3</v>
+      </c>
+      <c r="K60" t="n">
+        <v>7</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="n">
+        <v>2</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="R60" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="S60" t="n">
+        <v>16.78571428571428</v>
+      </c>
+      <c r="T60" t="n">
+        <v>14</v>
+      </c>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>255879</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Tauqir Anwar</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>16</v>
+      </c>
+      <c r="G61" t="n">
+        <v>9</v>
+      </c>
+      <c r="H61" t="n">
+        <v>13.75</v>
+      </c>
+      <c r="I61" t="n">
+        <v>45.83333333333333</v>
+      </c>
+      <c r="J61" t="n">
+        <v>10</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3</v>
+      </c>
+      <c r="L61" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M61" t="n">
+        <v>37</v>
+      </c>
+      <c r="N61" t="n">
+        <v>7</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1</v>
+      </c>
+      <c r="P61" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>45</v>
+      </c>
+      <c r="R61" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="S61" t="n">
+        <v>42.5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>4</v>
+      </c>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>346190</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Fardin Rahman Bhuiyan</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>16</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2</v>
+      </c>
+      <c r="H62" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="I62" t="n">
+        <v>51.66666666666667</v>
+      </c>
+      <c r="J62" t="n">
+        <v>10</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3</v>
+      </c>
+      <c r="L62" t="n">
+        <v>10</v>
+      </c>
+      <c r="M62" t="n">
+        <v>40</v>
+      </c>
+      <c r="N62" t="n">
+        <v>6</v>
+      </c>
+      <c r="O62" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="R62" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="S62" t="n">
+        <v>44.64285714285715</v>
+      </c>
+      <c r="T62" t="n">
+        <v>3</v>
+      </c>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="n">
+        <v>31.25</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>950163</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Sabab Tonoy</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="n">
+        <v>0</v>
+      </c>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
+      <c r="R63" t="n">
+        <v>0</v>
+      </c>
+      <c r="S63" t="n">
+        <v>0</v>
+      </c>
+      <c r="T63" t="n">
+        <v>20</v>
+      </c>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>195226</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Mayabi Rahman Mishi</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>14</v>
+      </c>
+      <c r="G64" t="n">
+        <v>3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>13.25</v>
+      </c>
+      <c r="I64" t="n">
+        <v>44.16666666666666</v>
+      </c>
+      <c r="J64" t="n">
+        <v>6</v>
+      </c>
+      <c r="K64" t="n">
+        <v>7</v>
+      </c>
+      <c r="L64" t="n">
+        <v>6</v>
+      </c>
+      <c r="M64" t="n">
+        <v>24</v>
+      </c>
+      <c r="N64" t="n">
+        <v>9</v>
+      </c>
+      <c r="O64" t="n">
+        <v>5</v>
+      </c>
+      <c r="P64" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>51.66666666666667</v>
+      </c>
+      <c r="R64" t="n">
+        <v>27</v>
+      </c>
+      <c r="S64" t="n">
+        <v>38.57142857142858</v>
+      </c>
+      <c r="T64" t="n">
+        <v>7</v>
+      </c>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>1 Top Ten Questions right</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>no. of right</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1 Top Ten Questions Skipped</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>no. of skipped</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1 Top Ten Questions Wrong</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>no. of wrong</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2 Top Ten Questions right</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>no. of right.1</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2 Top Ten Questions Skipped</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>no. of skipped.1</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2 Top Ten Questions Wrong</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>no. of wrong.1</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>3 Top Ten Questions right</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>no. of right.2</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>3 Top Ten Questions Skipped</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>no. of skipped.2</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>3 Top Ten Questions Wrong</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>no. of wrong.2</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>SeriesID</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>TestID</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>TestName</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Section1-Q7</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Section1-Q15</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Section1-Q1</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>14</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Section2-Q25</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>10</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Section2-Q23</t>
+        </is>
+      </c>
+      <c r="K2" t="n">
+        <v>15</v>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Section2-Q15</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>8</v>
+      </c>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Section3-Q2</t>
+        </is>
+      </c>
+      <c r="P2" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>13</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>7</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Section1-Q3</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>13</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Section1-Q23</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>12</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Section1-Q16</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Section2-Q16</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>9</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Section2-Q5</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
+        <v>14</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Section2-Q19</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>7</v>
+      </c>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Section3-Q11</t>
+        </is>
+      </c>
+      <c r="P3" t="n">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>Section3-Q8</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>11</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>6</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Section1-Q4</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>13</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Section1-Q24</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Section1-Q18</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>7</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Section2-Q20</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Section2-Q13</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
+        <v>13</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Section2-Q14</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>6</v>
+      </c>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Section3-Q1</t>
+        </is>
+      </c>
+      <c r="P4" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>Section3-Q5</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>10</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>5</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Section1-Q20</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Section1-Q29</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>11</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Section1-Q5</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>7</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Section2-Q3</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Section2-Q17</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>13</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Section2-Q1</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Section3-Q3</t>
+        </is>
+      </c>
+      <c r="P5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Section3-Q9</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>10</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Section3-Q5</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>5</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Section1-Q11</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Section1-Q28</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>10</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Section1-Q17</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>6</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Section2-Q1</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>6</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Section2-Q22</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
+        <v>13</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Section2-Q10</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Section3-Q13</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>Section3-Q14</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>9</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>4</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Section1-Q8</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Section1-Q13</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>9</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Section1-Q6</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>6</v>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Section2-Q18</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>6</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Section2-Q10</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>11</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Section2-Q2</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="P7" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>9</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Section3-Q8</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>4</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Section1-Q14</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>10</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Section1-Q21</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Section1-Q19</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Section2-Q19</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>6</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Section2-Q12</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>11</v>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Section2-Q21</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Section3-Q6</t>
+        </is>
+      </c>
+      <c r="P8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Section3-Q1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>3</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Section1-Q2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Section1-Q30</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Section1-Q2</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Section2-Q11</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Section2-Q4</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>11</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Section2-Q24</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Section3-Q14</t>
+        </is>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>Section3-Q6</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>7</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>3</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Section1-Q12</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Section1-Q25</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>7</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Section1-Q21</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Section2-Q2</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
+        <v>4</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Section2-Q8</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>11</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Section2-Q3</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Section3-Q13</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>3</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Section1-Q16</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Section1-Q10</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Section1-Q9</t>
+        </is>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Section2-Q21</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>4</v>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Section2-Q9</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
+        <v>11</v>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Section2-Q6</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Section3-Q6</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>3</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:BV17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Roll</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q5</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q6</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q7</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q8</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q9</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q10</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q11</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q12</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q13</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q14</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q15</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q16</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q17</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q18</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q19</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q20</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q21</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q22</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q23</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q24</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q25</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q26</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q27</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q28</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q29</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Section1-Q30</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q1</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q2</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q3</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q4</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q5</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q6</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q7</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q8</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q9</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q10</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q11</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q12</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q13</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q14</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q15</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q16</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q17</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q18</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q19</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q20</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q21</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q22</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q23</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q24</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Section2-Q25</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q1</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q3</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q5</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q6</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q8</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q9</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q11</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q13</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q14</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>SeriesID</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>TestID</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>TestName</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>346354</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF2" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AG2" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AI2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU2" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY2" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AZ2" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BA2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC2" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BD2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BE2" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BF2" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BH2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI2" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BJ2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BK2" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BL2" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BM2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BN2" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BO2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS2" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT2" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU2" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV2" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>694668</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AE3" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF3" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AG3" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AL3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AM3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AU3" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ3" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BA3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE3" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF3" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG3" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH3" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BI3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BJ3" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BK3" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BL3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS3" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT3" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU3" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV3" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>750246</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AD4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AL4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP4" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AU4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AZ4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC4" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BD4" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE4" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF4" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG4" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BH4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI4" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BJ4" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BK4" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BL4" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BM4" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BN4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO4" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP4" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BQ4" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR4" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS4" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT4" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU4" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV4" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>166388</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X5" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AL5" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AM5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AN5" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AP5" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU5" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AV5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BA5" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BB5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD5" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE5" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF5" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG5" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BI5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN5" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO5" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP5" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BQ5" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR5" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS5" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BT5" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU5" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV5" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>532160</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y6" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AA6" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AB6" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE6" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF6" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AG6" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AP6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AU6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW6" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX6" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AY6" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ6" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BA6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD6" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE6" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF6" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BH6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO6" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP6" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BQ6" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BR6" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS6" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BT6" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU6" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV6" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>159244</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AM7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN7" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AU7" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX7" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC7" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BD7" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BE7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF7" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG7" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BK7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM7" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BN7" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO7" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP7" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BQ7" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BR7" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BS7" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BT7" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU7" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV7" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>754261</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG8" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI8" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AP8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV8" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ8" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BA8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD8" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE8" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BF8" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BH8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ8" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BK8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO8" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP8" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BQ8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR8" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS8" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BT8" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU8" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV8" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>346190</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AB9" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD9" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AE9" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF9" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AG9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM9" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AN9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AQ9" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AR9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AU9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD9" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE9" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF9" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG9" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH9" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO9" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ9" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR9" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS9" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BT9" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU9" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV9" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>255879</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AB10" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AD10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE10" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AF10" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AG10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH10" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM10" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AQ10" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AR10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AU10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD10" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE10" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG10" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ10" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BK10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO10" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP10" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BQ10" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR10" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS10" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BT10" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU10" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV10" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>546220</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG11" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AH11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR11" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU11" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ11" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BA11" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BB11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD11" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE11" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BF11" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG11" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH11" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BI11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN11" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO11" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP11" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BQ11" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS11" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BT11" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU11" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV11" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>111135</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AB12" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD12" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AE12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF12" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AG12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH12" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI12" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AL12" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AM12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AQ12" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AR12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AU12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ12" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BA12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE12" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF12" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG12" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH12" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ12" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BK12" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BL12" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BM12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BN12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO12" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP12" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BQ12" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS12" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT12" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU12" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV12" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>871945</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>AE (W)</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AB13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD13" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AE13" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF13" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AG13" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AH13" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AI13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AQ13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR13" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AU13" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD13" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE13" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF13" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG13" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH13" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BI13" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BJ13" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BK13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BL13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BM13" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BN13" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BO13" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP13" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BQ13" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR13" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS13" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BT13" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU13" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV13" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>879668</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH14" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AI14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL14" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AM14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AP14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AZ14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC14" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BD14" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE14" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BG14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BH14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI14" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BJ14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK14" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BL14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN14" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO14" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP14" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BQ14" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR14" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BS14" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BT14" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU14" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV14" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>216338</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AE15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AG15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AI15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL15" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AM15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AP15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AU15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA15" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BB15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC15" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BD15" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BE15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG15" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN15" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO15" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BQ15" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BR15" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS15" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BT15" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU15" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV15" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>309281</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>BE (W)</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AD16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF16" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AG16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AU16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ16" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BA16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD16" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BF16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BG16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BH16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS16" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT16" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU16" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV16" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>195226</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF17" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AG17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI17" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM17" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AU17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AZ17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB17" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BC17" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BD17" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BE17" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BF17" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BG17" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH17" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BJ17" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BK17" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BL17" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BM17" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BN17" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BO17" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BP17" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BQ17" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR17" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS17" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BT17" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU17" t="inlineStr">
+        <is>
+          <t>1a8da4f2-663d-4839-ad48-82060501ccef</t>
+        </is>
+      </c>
+      <c r="BV17" t="inlineStr">
+        <is>
+          <t>IBA Mock 3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH106"/>
+  <dimension ref="A1:AH127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9657,6 +9657,1728 @@
       <c r="AG106" t="inlineStr"/>
       <c r="AH106" t="inlineStr"/>
     </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>680521</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Anas Kamal</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>6</v>
+      </c>
+      <c r="G107" t="n">
+        <v>9</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="J107" t="n">
+        <v>4</v>
+      </c>
+      <c r="K107" t="n">
+        <v>7</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M107" t="n">
+        <v>9</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="n">
+        <v>7</v>
+      </c>
+      <c r="P107" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>-5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="S107" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T107" t="n">
+        <v>9</v>
+      </c>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr">
+        <is>
+          <t>Total Question 2</t>
+        </is>
+      </c>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>341368</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Anayed Ahmed</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>0</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>0</v>
+      </c>
+      <c r="S108" t="n">
+        <v>0</v>
+      </c>
+      <c r="T108" t="n">
+        <v>10</v>
+      </c>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr">
+        <is>
+          <t>Total Question 3</t>
+        </is>
+      </c>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>871945</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Audrika Maisha Hosain</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>8</v>
+      </c>
+      <c r="G109" t="n">
+        <v>13</v>
+      </c>
+      <c r="H109" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I109" t="n">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="J109" t="n">
+        <v>3</v>
+      </c>
+      <c r="K109" t="n">
+        <v>5</v>
+      </c>
+      <c r="L109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M109" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="N109" t="n">
+        <v>7</v>
+      </c>
+      <c r="O109" t="n">
+        <v>7</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>35</v>
+      </c>
+      <c r="R109" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="S109" t="n">
+        <v>16.78571428571428</v>
+      </c>
+      <c r="T109" t="n">
+        <v>6</v>
+      </c>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>166388</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Farhan Hossain</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>11</v>
+      </c>
+      <c r="G110" t="n">
+        <v>10</v>
+      </c>
+      <c r="H110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="I110" t="n">
+        <v>28.33333333333333</v>
+      </c>
+      <c r="J110" t="n">
+        <v>12</v>
+      </c>
+      <c r="K110" t="n">
+        <v>2</v>
+      </c>
+      <c r="L110" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M110" t="n">
+        <v>46</v>
+      </c>
+      <c r="N110" t="n">
+        <v>5</v>
+      </c>
+      <c r="O110" t="n">
+        <v>7</v>
+      </c>
+      <c r="P110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>21.66666666666667</v>
+      </c>
+      <c r="R110" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="S110" t="n">
+        <v>33.21428571428572</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1</v>
+      </c>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="n">
+        <v>23.25</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>754261</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Farhan Khan</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>12</v>
+      </c>
+      <c r="G111" t="n">
+        <v>4</v>
+      </c>
+      <c r="H111" t="n">
+        <v>11</v>
+      </c>
+      <c r="I111" t="n">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="J111" t="n">
+        <v>6</v>
+      </c>
+      <c r="K111" t="n">
+        <v>5</v>
+      </c>
+      <c r="L111" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="M111" t="n">
+        <v>19</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="n">
+        <v>4</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>13.33333333333333</v>
+      </c>
+      <c r="R111" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="S111" t="n">
+        <v>25.35714285714285</v>
+      </c>
+      <c r="T111" t="n">
+        <v>4</v>
+      </c>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penalty </t>
+        </is>
+      </c>
+      <c r="AH111" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>750246</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Kaif Kabir</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>0</v>
+      </c>
+      <c r="S112" t="n">
+        <v>0</v>
+      </c>
+      <c r="T112" t="n">
+        <v>12</v>
+      </c>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>346354</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Mahmeed Saleh Ahsan</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>0</v>
+      </c>
+      <c r="S113" t="n">
+        <v>0</v>
+      </c>
+      <c r="T113" t="n">
+        <v>11</v>
+      </c>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>694668</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Nazifa Rahman Khan</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>9</v>
+      </c>
+      <c r="G114" t="n">
+        <v>8</v>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+      <c r="I114" t="n">
+        <v>23.33333333333333</v>
+      </c>
+      <c r="J114" t="n">
+        <v>6</v>
+      </c>
+      <c r="K114" t="n">
+        <v>4</v>
+      </c>
+      <c r="L114" t="n">
+        <v>5</v>
+      </c>
+      <c r="M114" t="n">
+        <v>20</v>
+      </c>
+      <c r="N114" t="n">
+        <v>4</v>
+      </c>
+      <c r="O114" t="n">
+        <v>7</v>
+      </c>
+      <c r="P114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>15</v>
+      </c>
+      <c r="R114" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="S114" t="n">
+        <v>20.35714285714286</v>
+      </c>
+      <c r="T114" t="n">
+        <v>5</v>
+      </c>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="n">
+        <v>14.25</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>291415</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Rubaiya Zaman</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>0</v>
+      </c>
+      <c r="M115" t="n">
+        <v>0</v>
+      </c>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>0</v>
+      </c>
+      <c r="S115" t="n">
+        <v>0</v>
+      </c>
+      <c r="T115" t="n">
+        <v>15</v>
+      </c>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>216338</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Safir Ahbab</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>8</v>
+      </c>
+      <c r="G116" t="n">
+        <v>9</v>
+      </c>
+      <c r="H116" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I116" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="J116" t="n">
+        <v>10</v>
+      </c>
+      <c r="K116" t="n">
+        <v>3</v>
+      </c>
+      <c r="L116" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="M116" t="n">
+        <v>37</v>
+      </c>
+      <c r="N116" t="n">
+        <v>6</v>
+      </c>
+      <c r="O116" t="n">
+        <v>4</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="R116" t="n">
+        <v>20</v>
+      </c>
+      <c r="S116" t="n">
+        <v>28.57142857142857</v>
+      </c>
+      <c r="T116" t="n">
+        <v>3</v>
+      </c>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="n">
+        <v>20</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>879668</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Sakib Muntasir Moon</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>0</v>
+      </c>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="n">
+        <v>0</v>
+      </c>
+      <c r="T117" t="n">
+        <v>21</v>
+      </c>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>309281</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Samin Yasar Rafsan</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>0</v>
+      </c>
+      <c r="S118" t="n">
+        <v>0</v>
+      </c>
+      <c r="T118" t="n">
+        <v>14</v>
+      </c>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>786264</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Shorfuddin Hassan</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>0</v>
+      </c>
+      <c r="S119" t="n">
+        <v>0</v>
+      </c>
+      <c r="T119" t="n">
+        <v>13</v>
+      </c>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>111135</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Sidratul Muntaha Hossain</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>0</v>
+      </c>
+      <c r="S120" t="n">
+        <v>0</v>
+      </c>
+      <c r="T120" t="n">
+        <v>16</v>
+      </c>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>159244</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Syed Iltimas Alam</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>15</v>
+      </c>
+      <c r="G121" t="n">
+        <v>6</v>
+      </c>
+      <c r="H121" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="I121" t="n">
+        <v>45</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M121" t="n">
+        <v>14</v>
+      </c>
+      <c r="N121" t="n">
+        <v>7</v>
+      </c>
+      <c r="O121" t="n">
+        <v>5</v>
+      </c>
+      <c r="P121" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="R121" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="S121" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="T121" t="n">
+        <v>2</v>
+      </c>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="n">
+        <v>22.75</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>546220</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Syeda Huddessa Zainab</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>7</v>
+      </c>
+      <c r="G122" t="n">
+        <v>10</v>
+      </c>
+      <c r="H122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I122" t="n">
+        <v>15</v>
+      </c>
+      <c r="J122" t="n">
+        <v>4</v>
+      </c>
+      <c r="K122" t="n">
+        <v>6</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M122" t="n">
+        <v>10</v>
+      </c>
+      <c r="N122" t="n">
+        <v>1</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R122" t="n">
+        <v>8</v>
+      </c>
+      <c r="S122" t="n">
+        <v>11.42857142857143</v>
+      </c>
+      <c r="T122" t="n">
+        <v>8</v>
+      </c>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>532160</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Tahasin Tabassum Elahee</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>8</v>
+      </c>
+      <c r="G123" t="n">
+        <v>8</v>
+      </c>
+      <c r="H123" t="n">
+        <v>6</v>
+      </c>
+      <c r="I123" t="n">
+        <v>20</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2</v>
+      </c>
+      <c r="K123" t="n">
+        <v>4</v>
+      </c>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="n">
+        <v>4</v>
+      </c>
+      <c r="N123" t="n">
+        <v>6</v>
+      </c>
+      <c r="O123" t="n">
+        <v>6</v>
+      </c>
+      <c r="P123" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>30</v>
+      </c>
+      <c r="R123" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="S123" t="n">
+        <v>16.42857142857143</v>
+      </c>
+      <c r="T123" t="n">
+        <v>7</v>
+      </c>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>255879</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Tauqir Anwar</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>0</v>
+      </c>
+      <c r="S124" t="n">
+        <v>0</v>
+      </c>
+      <c r="T124" t="n">
+        <v>17</v>
+      </c>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>346190</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Fardin Rahman Bhuiyan</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>0</v>
+      </c>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>0</v>
+      </c>
+      <c r="T125" t="n">
+        <v>18</v>
+      </c>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>950163</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Sabab Tonoy</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>0</v>
+      </c>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>0</v>
+      </c>
+      <c r="S126" t="n">
+        <v>0</v>
+      </c>
+      <c r="T126" t="n">
+        <v>19</v>
+      </c>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>195226</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Mayabi Rahman Mishi</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>0</v>
+      </c>
+      <c r="S127" t="n">
+        <v>0</v>
+      </c>
+      <c r="T127" t="n">
+        <v>20</v>
+      </c>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -9668,7 +11390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12520,6 +14242,916 @@
       <c r="W31" t="inlineStr">
         <is>
           <t>IBA Mock 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Section1-Q13</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>8</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Section1-Q6</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>7</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Section1-Q10</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>5</v>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Section2-Q6</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
+        <v>6</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Section2-Q13</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
+        <v>9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Section2-Q2</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>6</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>6</v>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="T32" t="n">
+        <v>6</v>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Section1-Q18</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>8</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Section1-Q19</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>6</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Section1-Q11</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>5</v>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Section2-Q16</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
+        <v>5</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Section2-Q3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
+        <v>9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Section2-Q10</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>Section3-Q2</t>
+        </is>
+      </c>
+      <c r="P33" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>Section3-Q11</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>6</v>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="T33" t="n">
+        <v>6</v>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Section1-Q14</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>7</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Section1-Q21</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>6</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Section1-Q12</t>
+        </is>
+      </c>
+      <c r="F34" t="n">
+        <v>5</v>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Section2-Q23</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Section2-Q25</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
+        <v>8</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Section2-Q15</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>Section3-Q5</t>
+        </is>
+      </c>
+      <c r="P34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>Section3-Q9</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>6</v>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>Section3-Q8</t>
+        </is>
+      </c>
+      <c r="T34" t="n">
+        <v>6</v>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Section1-Q9</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>6</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Section1-Q25</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>6</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Section1-Q15</t>
+        </is>
+      </c>
+      <c r="F35" t="n">
+        <v>5</v>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Section2-Q4</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>4</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Section2-Q5</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
+        <v>8</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Section2-Q21</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>Section3-Q1</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>Section3-Q6</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="T35" t="n">
+        <v>5</v>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Section1-Q22</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>5</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Section1-Q5</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Section1-Q17</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>5</v>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Section2-Q11</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Section2-Q8</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
+        <v>8</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Section2-Q4</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Section3-Q13</t>
+        </is>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Section3-Q14</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Section3-Q6</t>
+        </is>
+      </c>
+      <c r="T36" t="n">
+        <v>4</v>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Section1-Q1</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>4</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Section1-Q2</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>5</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Section1-Q1</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>4</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Section2-Q14</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>3</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Section2-Q1</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>7</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Section2-Q11</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>2</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Section3-Q3</t>
+        </is>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Section3-Q1</t>
+        </is>
+      </c>
+      <c r="T37" t="n">
+        <v>3</v>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Section1-Q20</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Section1-Q20</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Section1-Q24</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>4</v>
+      </c>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Section2-Q15</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>3</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Section2-Q18</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
+        <v>7</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Section2-Q14</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Section3-Q14</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>3</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Section1-Q8</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>4</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Section1-Q23</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>5</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Section1-Q28</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>4</v>
+      </c>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Section2-Q22</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>3</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Section2-Q20</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Section2-Q16</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>2</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Section3-Q11</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>Section3-Q5</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Section3-Q13</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Section1-Q15</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Section1-Q24</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>5</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Section1-Q29</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>4</v>
+      </c>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Section2-Q7</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>3</v>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Section2-Q9</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
+        <v>7</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Section2-Q17</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Section3-Q3</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>3</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Section1-Q16</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Section1-Q26</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>5</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Section1-Q3</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>4</v>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Section2-Q1</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Section2-Q12</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
+        <v>6</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Section2-Q9</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>Section3-Q8</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Section3-Q9</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>3</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
         </is>
       </c>
     </row>
@@ -12534,7 +15166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV40"/>
+  <dimension ref="A1:BV49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27344,6 +29976,3336 @@
         </is>
       </c>
     </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>546220</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC41" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AD41" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AE41" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AF41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG41" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AH41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK41" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AL41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO41" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AP41" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AQ41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS41" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AT41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU41" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AV41" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AW41" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AX41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ41" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BA41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC41" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BD41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BF41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BG41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BH41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS41" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT41" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU41" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV41" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>159244</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="Z42" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AA42" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AB42" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AC42" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AD42" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AE42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG42" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AH42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AJ42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK42" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AL42" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AM42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN42" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AO42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP42" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AQ42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT42" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AU42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE42" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF42" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BG42" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH42" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BI42" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ42" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BK42" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BL42" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BM42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO42" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP42" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BQ42" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR42" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS42" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BT42" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU42" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV42" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>532160</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z43" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AA43" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AB43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AC43" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AD43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE43" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AF43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AH43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI43" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AJ43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS43" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AT43" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AU43" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AV43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AW43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE43" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF43" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BG43" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BI43" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BK43" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BL43" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BM43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO43" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BQ43" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BS43" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BT43" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU43" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV43" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>871945</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="Z44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA44" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AB44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC44" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AD44" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AE44" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AF44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG44" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AH44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI44" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AJ44" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AK44" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AL44" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AM44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO44" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AP44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS44" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AT44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA44" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BB44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE44" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF44" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BG44" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BH44" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BI44" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ44" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK44" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BL44" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BM44" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BN44" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BO44" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BP44" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BQ44" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR44" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS44" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BT44" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU44" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV44" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>694668</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB45" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AC45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD45" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AE45" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG45" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AH45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI45" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AJ45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO45" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AP45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ45" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AR45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS45" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AT45" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AU45" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AV45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX45" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ45" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BA45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB45" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BC45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE45" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BF45" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BG45" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BH45" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BI45" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK45" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BL45" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BM45" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BN45" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BO45" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BP45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS45" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT45" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU45" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV45" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>216338</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AB46" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AC46" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AD46" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AE46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AG46" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AH46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI46" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AJ46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK46" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AL46" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AM46" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AN46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO46" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AP46" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AQ46" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AR46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AU46" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AV46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BB46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BC46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE46" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF46" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BG46" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH46" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BI46" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ46" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BK46" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BL46" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BM46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ46" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BR46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS46" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT46" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU46" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV46" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>166388</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Z47" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AA47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB47" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AC47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG47" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AH47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI47" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AJ47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK47" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AL47" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AM47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP47" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AQ47" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AR47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AU47" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AV47" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AW47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX47" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AY47" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AZ47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BB47" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BC47" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BD47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE47" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF47" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BG47" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BH47" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BI47" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ47" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BK47" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BL47" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BM47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP47" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BQ47" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BR47" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BS47" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT47" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU47" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV47" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>680521</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF48" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AG48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI48" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AJ48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK48" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AL48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO48" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AP48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AQ48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT48" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AU48" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AV48" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AW48" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AX48" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AY48" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AZ48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB48" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BC48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE48" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BF48" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BG48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BH48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM48" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BN48" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO48" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BP48" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BQ48" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BR48" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BS48" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BT48" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU48" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV48" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>754261</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Z49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD49" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AE49" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AF49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG49" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AH49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI49" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AJ49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN49" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AO49" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AP49" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AQ49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS49" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AT49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU49" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AV49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ49" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BA49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB49" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BC49" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BD49" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BE49" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BF49" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BG49" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN49" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BO49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP49" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BQ49" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BR49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS49" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT49" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU49" t="inlineStr">
+        <is>
+          <t>dc28b2fa-b3e5-4ead-a78d-c7c02e96fae2</t>
+        </is>
+      </c>
+      <c r="BV49" t="inlineStr">
+        <is>
+          <t>IBA Mock 6</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/main_data.xlsx
+++ b/data/main_data.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH169"/>
+  <dimension ref="A1:AH190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14847,6 +14847,1728 @@
       <c r="AG169" t="inlineStr"/>
       <c r="AH169" t="inlineStr"/>
     </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>680521</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Anas Kamal</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>0</v>
+      </c>
+      <c r="M170" t="n">
+        <v>0</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>0</v>
+      </c>
+      <c r="S170" t="n">
+        <v>0</v>
+      </c>
+      <c r="T170" t="n">
+        <v>11</v>
+      </c>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr">
+        <is>
+          <t>Total Question 2</t>
+        </is>
+      </c>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>341368</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Anayed Ahmed</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>0</v>
+      </c>
+      <c r="M171" t="n">
+        <v>0</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
+      <c r="R171" t="n">
+        <v>0</v>
+      </c>
+      <c r="S171" t="n">
+        <v>0</v>
+      </c>
+      <c r="T171" t="n">
+        <v>10</v>
+      </c>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr">
+        <is>
+          <t>Total Question 3</t>
+        </is>
+      </c>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>871945</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Audrika Maisha Hosain</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F172" t="n">
+        <v>9</v>
+      </c>
+      <c r="G172" t="n">
+        <v>17</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I172" t="n">
+        <v>15.83333333333333</v>
+      </c>
+      <c r="J172" t="n">
+        <v>11</v>
+      </c>
+      <c r="K172" t="n">
+        <v>5</v>
+      </c>
+      <c r="L172" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="M172" t="n">
+        <v>39</v>
+      </c>
+      <c r="N172" t="n">
+        <v>8</v>
+      </c>
+      <c r="O172" t="n">
+        <v>5</v>
+      </c>
+      <c r="P172" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>45</v>
+      </c>
+      <c r="R172" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="S172" t="n">
+        <v>30.35714285714285</v>
+      </c>
+      <c r="T172" t="n">
+        <v>7</v>
+      </c>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="n">
+        <v>21.25</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="n">
+        <v>70</v>
+      </c>
+      <c r="AH172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>166388</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Farhan Hossain</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F173" t="n">
+        <v>9</v>
+      </c>
+      <c r="G173" t="n">
+        <v>9</v>
+      </c>
+      <c r="H173" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="I173" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="J173" t="n">
+        <v>16</v>
+      </c>
+      <c r="K173" t="n">
+        <v>3</v>
+      </c>
+      <c r="L173" t="n">
+        <v>15.25</v>
+      </c>
+      <c r="M173" t="n">
+        <v>61</v>
+      </c>
+      <c r="N173" t="n">
+        <v>6</v>
+      </c>
+      <c r="O173" t="n">
+        <v>2</v>
+      </c>
+      <c r="P173" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>36.66666666666666</v>
+      </c>
+      <c r="R173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="S173" t="n">
+        <v>39.28571428571428</v>
+      </c>
+      <c r="T173" t="n">
+        <v>2</v>
+      </c>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>754261</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Farhan Khan</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F174" t="n">
+        <v>8</v>
+      </c>
+      <c r="G174" t="n">
+        <v>9</v>
+      </c>
+      <c r="H174" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I174" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="J174" t="n">
+        <v>11</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>11</v>
+      </c>
+      <c r="M174" t="n">
+        <v>44</v>
+      </c>
+      <c r="N174" t="n">
+        <v>6</v>
+      </c>
+      <c r="O174" t="n">
+        <v>1</v>
+      </c>
+      <c r="P174" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>38.33333333333334</v>
+      </c>
+      <c r="R174" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S174" t="n">
+        <v>32.14285714285715</v>
+      </c>
+      <c r="T174" t="n">
+        <v>6</v>
+      </c>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Penalty </t>
+        </is>
+      </c>
+      <c r="AH174" t="n">
+        <v>-0.25</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>750246</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Kaif Kabir</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>0</v>
+      </c>
+      <c r="M175" t="n">
+        <v>0</v>
+      </c>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>0</v>
+      </c>
+      <c r="S175" t="n">
+        <v>0</v>
+      </c>
+      <c r="T175" t="n">
+        <v>12</v>
+      </c>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>346354</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Mahmeed Saleh Ahsan</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>0</v>
+      </c>
+      <c r="M176" t="n">
+        <v>0</v>
+      </c>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0</v>
+      </c>
+      <c r="S176" t="n">
+        <v>0</v>
+      </c>
+      <c r="T176" t="n">
+        <v>16</v>
+      </c>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>694668</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Nazifa Rahman Khan</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F177" t="n">
+        <v>9</v>
+      </c>
+      <c r="G177" t="n">
+        <v>13</v>
+      </c>
+      <c r="H177" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="I177" t="n">
+        <v>19.16666666666667</v>
+      </c>
+      <c r="J177" t="n">
+        <v>7</v>
+      </c>
+      <c r="K177" t="n">
+        <v>6</v>
+      </c>
+      <c r="L177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M177" t="n">
+        <v>22</v>
+      </c>
+      <c r="N177" t="n">
+        <v>7</v>
+      </c>
+      <c r="O177" t="n">
+        <v>2</v>
+      </c>
+      <c r="P177" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>43.33333333333334</v>
+      </c>
+      <c r="R177" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="S177" t="n">
+        <v>25.35714285714285</v>
+      </c>
+      <c r="T177" t="n">
+        <v>8</v>
+      </c>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+      <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>291415</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Rubaiya Zaman</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>0</v>
+      </c>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>0</v>
+      </c>
+      <c r="S178" t="n">
+        <v>0</v>
+      </c>
+      <c r="T178" t="n">
+        <v>15</v>
+      </c>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>216338</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Safir Ahbab</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F179" t="n">
+        <v>11</v>
+      </c>
+      <c r="G179" t="n">
+        <v>9</v>
+      </c>
+      <c r="H179" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="I179" t="n">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="J179" t="n">
+        <v>12</v>
+      </c>
+      <c r="K179" t="n">
+        <v>7</v>
+      </c>
+      <c r="L179" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="M179" t="n">
+        <v>41</v>
+      </c>
+      <c r="N179" t="n">
+        <v>12</v>
+      </c>
+      <c r="O179" t="n">
+        <v>0</v>
+      </c>
+      <c r="P179" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>80</v>
+      </c>
+      <c r="R179" t="n">
+        <v>31</v>
+      </c>
+      <c r="S179" t="n">
+        <v>44.28571428571428</v>
+      </c>
+      <c r="T179" t="n">
+        <v>1</v>
+      </c>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="n">
+        <v>31</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>879668</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Sakib Muntasir Moon</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr"/>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>0</v>
+      </c>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="n">
+        <v>0</v>
+      </c>
+      <c r="T180" t="n">
+        <v>21</v>
+      </c>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>309281</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Samin Yasar Rafsan</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>0</v>
+      </c>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>0</v>
+      </c>
+      <c r="S181" t="n">
+        <v>0</v>
+      </c>
+      <c r="T181" t="n">
+        <v>14</v>
+      </c>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>786264</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Shorfuddin Hassan</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>0</v>
+      </c>
+      <c r="M182" t="n">
+        <v>0</v>
+      </c>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>0</v>
+      </c>
+      <c r="S182" t="n">
+        <v>0</v>
+      </c>
+      <c r="T182" t="n">
+        <v>13</v>
+      </c>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>111135</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Sidratul Muntaha Hossain</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr"/>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>0</v>
+      </c>
+      <c r="S183" t="n">
+        <v>0</v>
+      </c>
+      <c r="T183" t="n">
+        <v>18</v>
+      </c>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>159244</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Syed Iltimas Alam</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F184" t="n">
+        <v>8</v>
+      </c>
+      <c r="G184" t="n">
+        <v>3</v>
+      </c>
+      <c r="H184" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="I184" t="n">
+        <v>24.16666666666667</v>
+      </c>
+      <c r="J184" t="n">
+        <v>11</v>
+      </c>
+      <c r="K184" t="n">
+        <v>4</v>
+      </c>
+      <c r="L184" t="n">
+        <v>10</v>
+      </c>
+      <c r="M184" t="n">
+        <v>40</v>
+      </c>
+      <c r="N184" t="n">
+        <v>7</v>
+      </c>
+      <c r="O184" t="n">
+        <v>1</v>
+      </c>
+      <c r="P184" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>45</v>
+      </c>
+      <c r="R184" t="n">
+        <v>24</v>
+      </c>
+      <c r="S184" t="n">
+        <v>34.28571428571428</v>
+      </c>
+      <c r="T184" t="n">
+        <v>3</v>
+      </c>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>546220</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Syeda Huddessa Zainab</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>0</v>
+      </c>
+      <c r="M185" t="n">
+        <v>0</v>
+      </c>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="n">
+        <v>0</v>
+      </c>
+      <c r="S185" t="n">
+        <v>0</v>
+      </c>
+      <c r="T185" t="n">
+        <v>17</v>
+      </c>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>532160</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Tahasin Tabassum Elahee</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F186" t="n">
+        <v>6</v>
+      </c>
+      <c r="G186" t="n">
+        <v>14</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="I186" t="n">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="J186" t="n">
+        <v>8</v>
+      </c>
+      <c r="K186" t="n">
+        <v>3</v>
+      </c>
+      <c r="L186" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="M186" t="n">
+        <v>29</v>
+      </c>
+      <c r="N186" t="n">
+        <v>7</v>
+      </c>
+      <c r="O186" t="n">
+        <v>3</v>
+      </c>
+      <c r="P186" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>41.66666666666667</v>
+      </c>
+      <c r="R186" t="n">
+        <v>16</v>
+      </c>
+      <c r="S186" t="n">
+        <v>22.85714285714286</v>
+      </c>
+      <c r="T186" t="n">
+        <v>9</v>
+      </c>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="n">
+        <v>16</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>255879</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Tauqir Anwar</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F187" t="n">
+        <v>8</v>
+      </c>
+      <c r="G187" t="n">
+        <v>14</v>
+      </c>
+      <c r="H187" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I187" t="n">
+        <v>15</v>
+      </c>
+      <c r="J187" t="n">
+        <v>10</v>
+      </c>
+      <c r="K187" t="n">
+        <v>5</v>
+      </c>
+      <c r="L187" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="M187" t="n">
+        <v>35</v>
+      </c>
+      <c r="N187" t="n">
+        <v>11</v>
+      </c>
+      <c r="O187" t="n">
+        <v>1</v>
+      </c>
+      <c r="P187" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>71.66666666666667</v>
+      </c>
+      <c r="R187" t="n">
+        <v>24</v>
+      </c>
+      <c r="S187" t="n">
+        <v>34.28571428571428</v>
+      </c>
+      <c r="T187" t="n">
+        <v>4</v>
+      </c>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="n">
+        <v>24</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>346190</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Fardin Rahman Bhuiyan</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F188" t="n">
+        <v>7</v>
+      </c>
+      <c r="G188" t="n">
+        <v>10</v>
+      </c>
+      <c r="H188" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I188" t="n">
+        <v>15</v>
+      </c>
+      <c r="J188" t="n">
+        <v>10</v>
+      </c>
+      <c r="K188" t="n">
+        <v>2</v>
+      </c>
+      <c r="L188" t="n">
+        <v>10</v>
+      </c>
+      <c r="M188" t="n">
+        <v>40</v>
+      </c>
+      <c r="N188" t="n">
+        <v>8</v>
+      </c>
+      <c r="O188" t="n">
+        <v>0</v>
+      </c>
+      <c r="P188" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="R188" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="S188" t="n">
+        <v>32.14285714285715</v>
+      </c>
+      <c r="T188" t="n">
+        <v>5</v>
+      </c>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>950163</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Sabab Tonoy</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr"/>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>0</v>
+      </c>
+      <c r="M189" t="n">
+        <v>0</v>
+      </c>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
+      <c r="R189" t="n">
+        <v>0</v>
+      </c>
+      <c r="S189" t="n">
+        <v>0</v>
+      </c>
+      <c r="T189" t="n">
+        <v>19</v>
+      </c>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>195226</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Mayabi Rahman Mishi</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0</v>
+      </c>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="n">
+        <v>0</v>
+      </c>
+      <c r="S190" t="n">
+        <v>0</v>
+      </c>
+      <c r="T190" t="n">
+        <v>20</v>
+      </c>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -14858,7 +16580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16800,6 +18522,916 @@
       <c r="W21" t="inlineStr">
         <is>
           <t>IBA Mock 8</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Section1-Q4</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>7</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Section1-Q19</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>8</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Section1-Q1</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>7</v>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Section2-Q10</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Section2-Q21</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
+        <v>8</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Section2-Q22</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Section3-Q1</t>
+        </is>
+      </c>
+      <c r="P22" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>Section3-Q14</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>9</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Section3-Q13</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>4</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Section1-Q15</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>5</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Section1-Q20</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Section1-Q22</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>7</v>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Section2-Q4</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>9</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Section2-Q18</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
+        <v>7</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Section2-Q11</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>Section3-Q3</t>
+        </is>
+      </c>
+      <c r="P23" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>Section3-Q8</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>7</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Section3-Q2</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>2</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Section1-Q21</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>5</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Section1-Q5</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>7</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Section1-Q11</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>6</v>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Section2-Q15</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>8</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Section2-Q8</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
+        <v>7</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Section2-Q14</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>Section3-Q4</t>
+        </is>
+      </c>
+      <c r="P24" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>Section3-Q6</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>6</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Section3-Q1</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>1</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Section1-Q27</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>5</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Section1-Q12</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>6</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Section1-Q13</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>6</v>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Section2-Q20</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>6</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Section2-Q16</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
+        <v>6</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Section2-Q12</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>Section3-Q5</t>
+        </is>
+      </c>
+      <c r="P25" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>Section3-Q9</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>1</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Section1-Q16</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>4</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Section1-Q18</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Section1-Q17</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Section2-Q6</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>6</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Section2-Q24</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
+        <v>6</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Section2-Q1</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="P26" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>Section3-Q11</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>1</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Section1-Q28</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>4</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Section1-Q26</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Section1-Q2</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Section2-Q9</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
+        <v>6</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Section2-Q3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
+        <v>6</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Section2-Q16</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>Section3-Q11</t>
+        </is>
+      </c>
+      <c r="P27" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="T27" t="n">
+        <v>1</v>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Section1-Q30</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>4</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Section1-Q3</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>5</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Section1-Q23</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>5</v>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Section2-Q11</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>5</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Section2-Q12</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
+        <v>5</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Section2-Q20</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>Section3-Q12</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="T28" t="n">
+        <v>1</v>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Section1-Q14</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Section1-Q8</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Section1-Q29</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>5</v>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Section2-Q19</t>
+        </is>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Section2-Q17</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
+        <v>5</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Section2-Q5</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>Section3-Q2</t>
+        </is>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>Section3-Q10</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>Section3-Q3</t>
+        </is>
+      </c>
+      <c r="T29" t="n">
+        <v>1</v>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Section1-Q17</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Section1-Q15</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>4</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Section1-Q6</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>5</v>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Section2-Q2</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
+        <v>5</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Section2-Q23</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
+        <v>5</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Section2-Q7</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>Section3-Q15</t>
+        </is>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>Section3-Q11</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>2</v>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>Section3-Q5</t>
+        </is>
+      </c>
+      <c r="T30" t="n">
+        <v>1</v>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Section1-Q2</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Section1-Q7</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>4</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Section1-Q10</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>4</v>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Section2-Q13</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
+        <v>4</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Section2-Q25</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
+        <v>5</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Section2-Q8</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>Section3-Q13</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>2</v>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>Section3-Q7</t>
+        </is>
+      </c>
+      <c r="T31" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
         </is>
       </c>
     </row>
@@ -16814,7 +19446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BV22"/>
+  <dimension ref="A1:BV31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24964,6 +27596,3336 @@
         </is>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>754261</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AD23" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AE23" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AF23" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AG23" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AH23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI23" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP23" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AQ23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS23" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AU23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AZ23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA23" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BB23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC23" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BD23" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BE23" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF23" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BG23" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH23" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI23" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN23" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BO23" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BP23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS23" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT23" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU23" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>346190</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AD24" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AE24" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AF24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AH24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI24" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM24" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP24" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AQ24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS24" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AZ24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE24" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BG24" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH24" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI24" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BL24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM24" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BN24" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BO24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BR24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS24" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT24" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU24" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>216338</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AD25" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AE25" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AF25" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AG25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AH25" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AI25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AM25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP25" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AQ25" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AR25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AS25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU25" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AV25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AZ25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA25" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BB25" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BC25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD25" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BE25" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BG25" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH25" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI25" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ25" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BK25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BN25" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BO25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BP25" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BQ25" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BR25" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS25" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BT25" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU25" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>255879</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AD26" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AE26" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AF26" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AG26" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AH26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI26" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AN26" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP26" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AQ26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS26" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU26" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AV26" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AZ26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA26" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BB26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE26" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF26" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BG26" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH26" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI26" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ26" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BK26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM26" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BN26" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BO26" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BP26" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BQ26" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BR26" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS26" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BT26" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU26" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>694668</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH27" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AI27" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP27" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AQ27" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AR27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AS27" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV27" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AZ27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD27" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BE27" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF27" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BG27" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH27" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI27" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK27" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BL27" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BM27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BP27" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BQ27" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BR27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS27" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT27" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU27" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>871945</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>DE (W)</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AD28" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AE28" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AF28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI28" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN28" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP28" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AQ28" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AR28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AT28" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AZ28" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BA28" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BB28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BC28" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BD28" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BE28" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BG28" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BH28" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI28" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BJ28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK28" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BL28" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BM28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BN28" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BO28" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BP28" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BQ28" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BR28" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS28" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="BT28" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU28" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>159244</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF29" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AG29" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AH29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI29" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN29" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP29" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AQ29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR29" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV29" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AZ29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA29" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BB29" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BC29" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BD29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE29" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BG29" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH29" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI29" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK29" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BL29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN29" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BO29" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BP29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BQ29" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BR29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS29" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BT29" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU29" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>166388</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AD30" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AE30" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="AF30" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AG30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AH30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AI30" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ30" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AK30" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL30" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN30" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AO30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP30" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="AQ30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AR30" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="AS30" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AT30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AV30" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AZ30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BB30" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BC30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE30" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BF30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BG30" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BI30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BJ30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BK30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BL30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BO30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BP30" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BQ30" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="BR30" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS30" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BT30" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU30" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>532160</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>A (W)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>C (W)</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="Z31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AB31" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AD31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AE31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AF31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AG31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AH31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AI31" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AL31" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="AM31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AN31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AP31" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="AQ31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AR31" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="AS31" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="AU31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AV31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="AZ31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BA31" t="inlineStr">
+        <is>
+          <t>D (W)</t>
+        </is>
+      </c>
+      <c r="BB31" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BC31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BD31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BE31" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BF31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BG31" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BH31" t="inlineStr">
+        <is>
+          <t>E (C)</t>
+        </is>
+      </c>
+      <c r="BI31" t="inlineStr">
+        <is>
+          <t>B (C)</t>
+        </is>
+      </c>
+      <c r="BJ31" t="inlineStr">
+        <is>
+          <t>A (C)</t>
+        </is>
+      </c>
+      <c r="BK31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BL31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BM31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BN31" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BO31" t="inlineStr">
+        <is>
+          <t>C (C)</t>
+        </is>
+      </c>
+      <c r="BP31" t="inlineStr">
+        <is>
+          <t>E (W)</t>
+        </is>
+      </c>
+      <c r="BQ31" t="inlineStr">
+        <is>
+          <t>B (W)</t>
+        </is>
+      </c>
+      <c r="BR31" t="inlineStr">
+        <is>
+          <t>NAN</t>
+        </is>
+      </c>
+      <c r="BS31" t="inlineStr">
+        <is>
+          <t>D (C)</t>
+        </is>
+      </c>
+      <c r="BT31" t="inlineStr">
+        <is>
+          <t>265919b8-5412-4b63-a998-413574caaad2</t>
+        </is>
+      </c>
+      <c r="BU31" t="inlineStr">
+        <is>
+          <t>f43cee62-a9c7-44ee-a6b5-d5a634d2116a</t>
+        </is>
+      </c>
+      <c r="BV31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">IBA Mock 9 </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
